--- a/Reatórios/Resultados_AC_UM.xlsx
+++ b/Reatórios/Resultados_AC_UM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b86028a9b73dc8c3/Área de Trabalho/INESC/AC UMs/Reatórios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_AD4D361C20488DEA4E38A0DDE4996D405BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE3CDA1-6143-4659-A5CE-87229C659233}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="11_AD4D361C20488DEA4E38A0DDE4996D405BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC109BD-7D09-4BCE-B9EF-9498A6DC4EC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sequencial For;a bruta" sheetId="1" r:id="rId1"/>
+    <sheet name="Versões" sheetId="1" r:id="rId1"/>
+    <sheet name="Vs Trabalhos anteriores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ayres Nishio</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{A3461C7A-CB48-49C5-B386-DE0F9EDA54FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ayres Nishio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Não entrou no Artigo
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Caso</t>
   </si>
@@ -50,9 +86,6 @@
     <t>#medidas</t>
   </si>
   <si>
-    <t>#Ums</t>
-  </si>
-  <si>
     <t>Maior matriz</t>
   </si>
   <si>
@@ -68,9 +101,6 @@
     <t>Cardinalidade</t>
   </si>
   <si>
-    <t>B&amp;B no 118 barras</t>
-  </si>
-  <si>
     <t>Força Bruta(s)</t>
   </si>
   <si>
@@ -83,9 +113,6 @@
     <t>Sequencial 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempo cardinalidade (s): </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -96,13 +123,73 @@
   </si>
   <si>
     <t>14 barras</t>
+  </si>
+  <si>
+    <t>Paralelo CPU</t>
+  </si>
+  <si>
+    <t>300 barras</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>Resultados casos anteriores 118 barras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 dias </t>
+  </si>
+  <si>
+    <t>3 dias</t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>4 minutos</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>speed-up</t>
+  </si>
+  <si>
+    <t>Sequencial 2</t>
+  </si>
+  <si>
+    <t>6 minutos</t>
+  </si>
+  <si>
+    <t>2 minutos</t>
+  </si>
+  <si>
+    <t>#UMs</t>
+  </si>
+  <si>
+    <t>Speed-ups</t>
+  </si>
+  <si>
+    <t>Artigos:</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Abel/Vinic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,21 +207,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -142,24 +278,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -172,6 +471,1324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação dos Resultados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Força Bruta(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS(Ganho)(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS(Híbrido)(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>728.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Vs Trabalhos anteriores'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vs Trabalhos anteriores'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8FCA-46D7-BD64-959C9BC38F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="246058384"/>
+        <c:axId val="246058800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="246058384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246058800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246058800"/>
+        <c:scaling>
+          <c:logBase val="100"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246058384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE692DA-36DC-936E-8D07-DAAF707BA4E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,27 +2058,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,8 +2121,11 @@
       <c r="D3">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,10 +2138,13 @@
       <c r="D4">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -502,411 +2155,805 @@
       <c r="D5">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="E8" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>2</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>17.204999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="25">
+        <v>4</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>13.128</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1498.1089999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="3">
+        <v>332.36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.106</v>
+      </c>
+      <c r="D14" s="28">
+        <v>345.89299999999997</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1515.4490000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="E16" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B17" s="26">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C17" s="26">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D17" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="E17" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:G21" si="0">D10/D17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H21" si="1">E10/E17</f>
+        <v>1.32</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D18" s="3">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="E18" s="3">
+        <v>10.746</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0803324099722993</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6010608598548295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B19" s="26">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C19" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D19" s="26">
         <v>10.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="E19" s="26">
+        <v>765.72400000000005</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.208839779005525</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9564608135568426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C20" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D20" s="3">
         <v>269.57100000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="E20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2329219389326003</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B21" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C13">
+      <c r="C21" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D21" s="28">
         <v>280.80900000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1062</v>
-      </c>
-      <c r="C21" s="4">
-        <v>639</v>
-      </c>
-      <c r="D21" s="4">
-        <v>34.700000000000003</v>
+      <c r="E21" s="28">
+        <v>776.57500000000005</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2317731981524807</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9514522100247884</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4">
-        <v>26820</v>
-      </c>
-      <c r="C22" s="4">
-        <v>13009</v>
-      </c>
-      <c r="D22" s="4">
-        <v>728.89</v>
+      <c r="A22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
-        <v>452685</v>
-      </c>
-      <c r="C23" s="4">
-        <v>231363</v>
-      </c>
-      <c r="D23" s="4">
-        <v>14380</v>
-      </c>
-      <c r="E23" s="2">
-        <f>D23/D13</f>
-        <v>51.209184890797658</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
+        <v>2</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E24" s="26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <f>D17/D24</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H24" s="4">
+        <f>E17/E24</f>
+        <v>2.9411764705882351</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.016</v>
+      </c>
+      <c r="G25" s="4">
+        <f>D18/D25</f>
+        <v>3.61</v>
+      </c>
+      <c r="H25" s="4">
+        <f>E18/E25</f>
+        <v>3.5629973474801062</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="25">
+        <v>4</v>
+      </c>
+      <c r="B26" s="26">
         <v>0</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="26">
         <v>0</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
+      <c r="D26" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="E26" s="26">
+        <v>231.48</v>
+      </c>
+      <c r="G26" s="4">
+        <f>D19/D26</f>
+        <v>3.5032258064516126</v>
+      </c>
+      <c r="H26" s="4">
+        <f>E19/E26</f>
+        <v>3.3079488508726458</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
+        <v>81.569000000000003</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.39</v>
+      <c r="D28" s="28">
+        <v>84.778000000000006</v>
+      </c>
+      <c r="E28" s="28">
+        <v>234.535</v>
+      </c>
+      <c r="G28" s="4">
+        <f>D21/D28</f>
+        <v>3.3122862063271135</v>
+      </c>
+      <c r="H28" s="4">
+        <f>E21/E28</f>
+        <v>3.3111262711322405</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>13.128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>5</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="D30" s="4">
-        <v>332.36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.106</v>
-      </c>
-      <c r="D31" s="4">
-        <v>345.89299999999997</v>
-      </c>
-      <c r="E31" s="4">
-        <f>D31/D13</f>
-        <v>1.2317731981524807</v>
-      </c>
-      <c r="F31" s="5">
-        <f>1-D13/D31</f>
-        <v>0.18816223514208141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>6.7229999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>154.80600000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D39" s="4">
-        <v>161.77000000000001</v>
-      </c>
-      <c r="E39" s="4">
-        <f>D13/D39</f>
-        <v>1.7358533720714595</v>
-      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A80EB33-0084-4927-835A-EE91B7DE9E0B}">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1062</v>
+      </c>
+      <c r="C6" s="3">
+        <v>639</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>26820</v>
+      </c>
+      <c r="C7" s="9">
+        <v>13009</v>
+      </c>
+      <c r="D7" s="9">
+        <v>728.89</v>
+      </c>
+      <c r="E7" s="15">
+        <v>13.128</v>
+      </c>
+      <c r="F7" s="15">
+        <v>10.86</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>452685</v>
+      </c>
+      <c r="C8" s="13">
+        <v>231363</v>
+      </c>
+      <c r="D8" s="13">
+        <v>14380</v>
+      </c>
+      <c r="E8" s="15">
+        <v>332.36</v>
+      </c>
+      <c r="F8" s="15">
+        <v>269.57100000000003</v>
+      </c>
+      <c r="G8" s="3">
+        <v>81.569000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(B4:B8)</f>
+        <v>480599</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:D9" si="0">SUM(C4:C8)</f>
+        <v>245037</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>15145.59</v>
+      </c>
+      <c r="E9" s="16">
+        <v>345.89299999999997</v>
+      </c>
+      <c r="F9" s="16">
+        <v>280.80900000000003</v>
+      </c>
+      <c r="G9" s="3">
+        <v>84.778000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="18">
+        <f t="shared" ref="E13:G17" si="1">D5/E5</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="18">
+        <f t="shared" si="1"/>
+        <v>88.974358974358978</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0803324099722993</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="18">
+        <f t="shared" si="1"/>
+        <v>55.521785496648384</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>1.208839779005525</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>3.5032258064516126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="18">
+        <f t="shared" si="1"/>
+        <v>43.266337706101815</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2329219389326003</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>3.304821684708652</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>43.786922545411443</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2317731981524807</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="1"/>
+        <v>3.3122862063271135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Reatórios/Resultados_AC_UM.xlsx
+++ b/Reatórios/Resultados_AC_UM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b86028a9b73dc8c3/Área de Trabalho/INESC/AC UMs/Reatórios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="11_AD4D361C20488DEA4E38A0DDE4996D405BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC109BD-7D09-4BCE-B9EF-9498A6DC4EC1}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="11_AD4D361C20488DEA4E38A0DDE4996D405BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B50A6CC-3E52-4B11-A05F-2EF370499D97}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Vs Trabalhos anteriores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Caso</t>
   </si>
@@ -180,6 +181,54 @@
   </si>
   <si>
     <t>Abel/Vinic.</t>
+  </si>
+  <si>
+    <t>https://electricgrids.engr.tamu.edu/electric-grid-test-cases/</t>
+  </si>
+  <si>
+    <t>30 barras</t>
+  </si>
+  <si>
+    <t>Seq. 2</t>
+  </si>
+  <si>
+    <t>Seq. 1</t>
+  </si>
+  <si>
+    <t>Economia</t>
+  </si>
+  <si>
+    <t># Matrizes invertidas</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#C1</t>
+  </si>
+  <si>
+    <t>#C2</t>
+  </si>
+  <si>
+    <t>#C3</t>
+  </si>
+  <si>
+    <t>#C4</t>
+  </si>
+  <si>
+    <t>#C5</t>
+  </si>
+  <si>
+    <t>Comparação Com DFS híbrido</t>
   </si>
 </sst>
 </file>
@@ -189,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,19 +280,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -265,12 +323,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -403,11 +473,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -418,47 +534,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2058,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2072,166 +2299,249 @@
     <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
+    <col min="13" max="13" width="4.90625" customWidth="1"/>
+    <col min="14" max="16" width="10.90625" customWidth="1"/>
+    <col min="17" max="17" width="4.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" customWidth="1"/>
+    <col min="19" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="81">
+        <v>5</v>
+      </c>
+      <c r="K2" s="82">
+        <v>16</v>
+      </c>
+      <c r="L2" s="83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="20">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="20">
         <v>118</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="20">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="28">
+        <v>9</v>
+      </c>
+      <c r="K3" s="29">
+        <v>85</v>
+      </c>
+      <c r="L3" s="30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="21">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="21">
         <v>176</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="21">
         <v>624</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="25">
+        <v>15</v>
+      </c>
+      <c r="K4" s="26">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="20">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="20">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="20">
         <v>99</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="20">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="28">
+        <v>35</v>
+      </c>
+      <c r="K5" s="29">
+        <v>78</v>
+      </c>
+      <c r="L5" s="30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="84">
+        <v>61</v>
+      </c>
+      <c r="K6" s="85">
+        <v>184</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="31">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="14">
         <v>0</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="33">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="34">
         <v>3</v>
       </c>
       <c r="B11" s="3">
@@ -2243,29 +2553,29 @@
       <c r="D11" s="3">
         <v>0.39</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="35">
         <v>17.204999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
         <v>4</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="14">
         <v>0</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="14">
         <v>13.128</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="33">
         <v>1498.1089999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="34">
         <v>5</v>
       </c>
       <c r="B13" s="3">
@@ -2277,104 +2587,226 @@
       <c r="D13" s="3">
         <v>332.36</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="38">
         <v>0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="38">
         <v>0.106</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="38">
         <v>345.89299999999997</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="39">
         <v>1515.4490000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="J14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="J15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+      <c r="J16" s="68">
+        <v>21</v>
+      </c>
+      <c r="K16" s="71">
+        <v>21</v>
+      </c>
+      <c r="L16" s="72">
+        <f>J16-K16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="80">
+        <f t="shared" ref="M16:M20" si="0">L16/J16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="68">
+        <v>99</v>
+      </c>
+      <c r="O16" s="71">
+        <v>99</v>
+      </c>
+      <c r="P16" s="71">
+        <f>N16-O16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="80">
+        <f t="shared" ref="Q16:Q20" si="1">P16/N16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="68">
+        <v>240</v>
+      </c>
+      <c r="S16" s="71">
+        <v>240</v>
+      </c>
+      <c r="T16" s="72">
+        <f>R16-S16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="80">
+        <f t="shared" ref="U16:U19" si="2">T16/R16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="32">
         <v>2</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="14">
         <v>0</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="33">
         <v>0.1</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17:G21" si="0">D10/D17</f>
+      <c r="G17" s="42">
+        <f t="shared" ref="G17:G21" si="3">D10/D17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" ref="H17:H21" si="1">E10/E17</f>
+      <c r="H17" s="43">
+        <f t="shared" ref="H17:H21" si="4">E10/E17</f>
         <v>1.32</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="J17" s="69">
+        <v>210</v>
+      </c>
+      <c r="K17" s="73">
+        <v>120</v>
+      </c>
+      <c r="L17" s="74">
+        <f>J17-K17</f>
+        <v>90</v>
+      </c>
+      <c r="M17" s="80">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N17" s="69">
+        <v>4851</v>
+      </c>
+      <c r="O17" s="73">
+        <v>3402</v>
+      </c>
+      <c r="P17" s="73">
+        <f t="shared" ref="P17:P20" si="5">N17-O17</f>
+        <v>1449</v>
+      </c>
+      <c r="Q17" s="80">
+        <f t="shared" si="1"/>
+        <v>0.29870129870129869</v>
+      </c>
+      <c r="R17" s="69">
+        <v>28680</v>
+      </c>
+      <c r="S17" s="73">
+        <v>17766</v>
+      </c>
+      <c r="T17" s="74">
+        <f>R17-S17</f>
+        <v>10914</v>
+      </c>
+      <c r="U17" s="80">
+        <f t="shared" si="2"/>
+        <v>0.38054393305439332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
         <v>3</v>
       </c>
       <c r="B18" s="3">
@@ -2386,45 +2818,129 @@
       <c r="D18" s="3">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="35">
         <v>10.746</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0803324099722993</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="4"/>
+        <v>1.6010608598548295</v>
+      </c>
+      <c r="J18" s="68">
+        <v>1330</v>
+      </c>
+      <c r="K18" s="71">
+        <v>441</v>
+      </c>
+      <c r="L18" s="72">
+        <f>J18-K18</f>
+        <v>889</v>
+      </c>
+      <c r="M18" s="80">
         <f t="shared" si="0"/>
-        <v>1.0803324099722993</v>
-      </c>
-      <c r="H18" s="4">
+        <v>0.66842105263157892</v>
+      </c>
+      <c r="N18" s="68">
+        <v>156849</v>
+      </c>
+      <c r="O18" s="71">
+        <v>85145</v>
+      </c>
+      <c r="P18" s="71">
+        <f t="shared" si="5"/>
+        <v>71704</v>
+      </c>
+      <c r="Q18" s="80">
         <f t="shared" si="1"/>
-        <v>1.6010608598548295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
+        <v>0.45715305803671047</v>
+      </c>
+      <c r="R18" s="68">
+        <v>2275280</v>
+      </c>
+      <c r="S18" s="71">
+        <v>1096057</v>
+      </c>
+      <c r="T18" s="72">
+        <f>R18-S18</f>
+        <v>1179223</v>
+      </c>
+      <c r="U18" s="80">
+        <f t="shared" si="2"/>
+        <v>0.51827599240533029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
         <v>4</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="14">
         <v>1E-3</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="14">
         <v>10.86</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="33">
         <v>765.72400000000005</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="42">
+        <f t="shared" si="3"/>
+        <v>1.208839779005525</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="4"/>
+        <v>1.9564608135568426</v>
+      </c>
+      <c r="J19" s="69">
+        <v>5985</v>
+      </c>
+      <c r="K19" s="73">
+        <v>987</v>
+      </c>
+      <c r="L19" s="74">
+        <f>J19-K19</f>
+        <v>4998</v>
+      </c>
+      <c r="M19" s="80">
         <f t="shared" si="0"/>
-        <v>1.208839779005525</v>
-      </c>
-      <c r="H19" s="4">
+        <v>0.83508771929824566</v>
+      </c>
+      <c r="N19" s="69">
+        <v>3764376</v>
+      </c>
+      <c r="O19" s="73">
+        <v>1574694</v>
+      </c>
+      <c r="P19" s="73">
+        <f t="shared" si="5"/>
+        <v>2189682</v>
+      </c>
+      <c r="Q19" s="80">
         <f t="shared" si="1"/>
-        <v>1.9564608135568426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+        <v>0.5816852514201557</v>
+      </c>
+      <c r="R19" s="69">
+        <v>134810340</v>
+      </c>
+      <c r="S19" s="73">
+        <v>50430618</v>
+      </c>
+      <c r="T19" s="74">
+        <f>R19-S19</f>
+        <v>84379722</v>
+      </c>
+      <c r="U19" s="80">
+        <f t="shared" si="2"/>
+        <v>0.6259143178483193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
       <c r="B20" s="3">
@@ -2436,116 +2952,206 @@
       <c r="D20" s="3">
         <v>269.57100000000003</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="44">
+        <f t="shared" si="3"/>
+        <v>1.2329219389326003</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="68">
+        <v>20349</v>
+      </c>
+      <c r="K20" s="71">
+        <v>1236</v>
+      </c>
+      <c r="L20" s="72">
+        <f>J20-K20</f>
+        <v>19113</v>
+      </c>
+      <c r="M20" s="80">
         <f t="shared" si="0"/>
-        <v>1.2329219389326003</v>
-      </c>
-      <c r="H20" s="31" t="s">
+        <v>0.93925991449211266</v>
+      </c>
+      <c r="N20" s="68">
+        <v>71523144</v>
+      </c>
+      <c r="O20" s="71">
+        <v>22390026</v>
+      </c>
+      <c r="P20" s="71">
+        <f t="shared" si="5"/>
+        <v>49133118</v>
+      </c>
+      <c r="Q20" s="80">
+        <f t="shared" si="1"/>
+        <v>0.68695411376211313</v>
+      </c>
+      <c r="R20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="S20" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="38">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="38">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="38">
         <v>280.80900000000003</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="39">
         <v>776.57500000000005</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
+      <c r="G21" s="47">
+        <f t="shared" si="3"/>
         <v>1.2317731981524807</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
+      <c r="H21" s="48">
+        <f t="shared" si="4"/>
         <v>1.9514522100247884</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+      <c r="J21" s="70">
+        <f>SUM(J16:J20)</f>
+        <v>27895</v>
+      </c>
+      <c r="K21" s="78">
+        <f>SUM(K16:K20)</f>
+        <v>2805</v>
+      </c>
+      <c r="L21" s="79">
+        <f>SUM(L16:L20)</f>
+        <v>25090</v>
+      </c>
+      <c r="M21" s="80">
+        <f>L21/J21</f>
+        <v>0.89944434486467106</v>
+      </c>
+      <c r="N21" s="70">
+        <f t="shared" ref="N21" si="6">SUM(N16:N20)</f>
+        <v>75449319</v>
+      </c>
+      <c r="O21" s="78">
+        <f t="shared" ref="O21" si="7">SUM(O16:O20)</f>
+        <v>24053366</v>
+      </c>
+      <c r="P21" s="78">
+        <f t="shared" ref="P21" si="8">SUM(P16:P20)</f>
+        <v>51395953</v>
+      </c>
+      <c r="Q21" s="80">
+        <f>P21/N21</f>
+        <v>0.68119836840409387</v>
+      </c>
+      <c r="R21" s="70">
+        <f t="shared" ref="R21" si="9">SUM(R16:R20)</f>
+        <v>137114540</v>
+      </c>
+      <c r="S21" s="78">
+        <f t="shared" ref="S21" si="10">SUM(S16:S20)</f>
+        <v>51544681</v>
+      </c>
+      <c r="T21" s="79">
+        <f>R21-S21</f>
+        <v>85569859</v>
+      </c>
+      <c r="U21" s="80">
+        <f>T21/R21</f>
+        <v>0.62407574718188163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="25">
+      <c r="H23" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="32">
         <v>2</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="14">
         <v>0</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="14">
         <v>0</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="33">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G24" s="4">
-        <f>D17/D24</f>
+      <c r="G24" s="42">
+        <f t="shared" ref="G24:H26" si="11">D17/D24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H24" s="4">
-        <f>E17/E24</f>
+      <c r="H24" s="43">
+        <f t="shared" si="11"/>
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="34">
         <v>3</v>
       </c>
       <c r="B25" s="3">
@@ -2557,45 +3163,45 @@
       <c r="D25" s="3">
         <v>0.1</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="35">
         <v>3.016</v>
       </c>
-      <c r="G25" s="4">
-        <f>D18/D25</f>
+      <c r="G25" s="44">
+        <f t="shared" si="11"/>
         <v>3.61</v>
       </c>
-      <c r="H25" s="4">
-        <f>E18/E25</f>
+      <c r="H25" s="45">
+        <f t="shared" si="11"/>
         <v>3.5629973474801062</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
         <v>4</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="14">
         <v>0</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="14">
         <v>0</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="14">
         <v>3.1</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="33">
         <v>231.48</v>
       </c>
-      <c r="G26" s="4">
-        <f>D19/D26</f>
+      <c r="G26" s="42">
+        <f t="shared" si="11"/>
         <v>3.5032258064516126</v>
       </c>
-      <c r="H26" s="4">
-        <f>E19/E26</f>
+      <c r="H26" s="43">
+        <f t="shared" si="11"/>
         <v>3.3079488508726458</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="34">
         <v>5</v>
       </c>
       <c r="B27" s="3">
@@ -2607,41 +3213,44 @@
       <c r="D27" s="3">
         <v>81.569000000000003</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="31" t="s">
+      <c r="G27" s="49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="H27" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="38">
         <v>0</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="38">
         <v>84.778000000000006</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="39">
         <v>234.535</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="47">
         <f>D21/D28</f>
         <v>3.3122862063271135</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="48">
         <f>E21/E28</f>
         <v>3.3111262711322405</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H29" s="2"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G29" s="4"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="3"/>
@@ -2654,16 +3263,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A80EB33-0084-4927-835A-EE91B7DE9E0B}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -2675,25 +3285,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2710,36 +3320,36 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="8">
         <v>1E-4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="14">
         <v>31</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="14">
         <v>25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="51">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="51">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="51">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -2756,204 +3366,215 @@
       <c r="D6" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="8">
         <v>0.39</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="8">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="52">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="53">
         <v>26820</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="53">
         <v>13009</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="53">
         <v>728.89</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="51">
         <v>13.128</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="51">
         <v>10.86</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="51">
         <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="54">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="55">
         <v>452685</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="55">
         <v>231363</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="55">
         <v>14380</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="63">
         <v>332.36</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="63">
         <v>269.57100000000003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="63">
         <v>81.569000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="64">
         <f>SUM(B4:B8)</f>
         <v>480599</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="64">
         <f t="shared" ref="C9:D9" si="0">SUM(C4:C8)</f>
         <v>245037</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="65">
         <f t="shared" si="0"/>
         <v>15145.59</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="59">
         <v>345.89299999999997</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="59">
         <v>280.80900000000003</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="59">
         <v>84.778000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="67" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G12" s="60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="17" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="18">
-        <f t="shared" ref="E13:G17" si="1">D5/E5</f>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
+        <f>D5/E5</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="F13" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E14" s="18">
-        <f t="shared" si="1"/>
+      <c r="F14" s="10">
+        <f>D5/F5</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G14" s="10">
+        <f>D5/G5</f>
+        <v>111.11111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="10">
+        <f>D6/E6</f>
         <v>88.974358974358978</v>
       </c>
-      <c r="F14" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0803324099722993</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="1"/>
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="18">
-        <f t="shared" si="1"/>
+      <c r="F15" s="10">
+        <f>D6/F6</f>
+        <v>96.121883656509709</v>
+      </c>
+      <c r="G15" s="10">
+        <f>D6/G6</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="10">
+        <f>D7/E7</f>
         <v>55.521785496648384</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" si="1"/>
-        <v>1.208839779005525</v>
-      </c>
-      <c r="G15" s="22">
-        <f t="shared" si="1"/>
-        <v>3.5032258064516126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E16" s="18">
-        <f t="shared" si="1"/>
+      <c r="F16" s="10">
+        <f>D7/F7</f>
+        <v>67.116942909760596</v>
+      </c>
+      <c r="G16" s="10">
+        <f>D7/G7</f>
+        <v>235.1258064516129</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="10">
+        <f>D8/E8</f>
         <v>43.266337706101815</v>
       </c>
-      <c r="F16" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2329219389326003</v>
-      </c>
-      <c r="G16" s="22">
-        <f t="shared" si="1"/>
-        <v>3.304821684708652</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E17" s="19">
-        <f t="shared" si="1"/>
+      <c r="F17" s="10">
+        <f>D8/F8</f>
+        <v>53.344016975119722</v>
+      </c>
+      <c r="G17" s="10">
+        <f>D8/G8</f>
+        <v>176.29246404884208</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="11">
+        <f>D9/E9</f>
         <v>43.786922545411443</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" si="1"/>
-        <v>1.2317731981524807</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="1"/>
-        <v>3.3122862063271135</v>
+      <c r="F18" s="11">
+        <f>D9/F9</f>
+        <v>53.935557621016414</v>
+      </c>
+      <c r="G18" s="11">
+        <f>D9/G9</f>
+        <v>178.65000353865389</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{4675A796-EEE1-4E16-8337-1678CD69F7A5}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>